--- a/data/pca/factorExposure/factorExposure_2012-03-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-03-27.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01727502495247409</v>
+        <v>-0.01652469216065108</v>
       </c>
       <c r="C2">
-        <v>-0.03637267240340399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02894082785490795</v>
+      </c>
+      <c r="D2">
+        <v>-3.439342068523537e-05</v>
+      </c>
+      <c r="E2">
+        <v>-0.009103584215401856</v>
+      </c>
+      <c r="F2">
+        <v>0.008411633632136871</v>
+      </c>
+      <c r="G2">
+        <v>0.007783568593192689</v>
+      </c>
+      <c r="H2">
+        <v>-0.0589929820028664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0747511688635436</v>
+        <v>-0.08819621441238341</v>
       </c>
       <c r="C4">
-        <v>-0.05418411982384255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.0381466818790379</v>
+      </c>
+      <c r="D4">
+        <v>-0.06583179706750852</v>
+      </c>
+      <c r="E4">
+        <v>-0.01788734966071712</v>
+      </c>
+      <c r="F4">
+        <v>0.02963048587006787</v>
+      </c>
+      <c r="G4">
+        <v>0.01093837678869507</v>
+      </c>
+      <c r="H4">
+        <v>0.04202307610771065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1081930406960276</v>
+        <v>-0.1197029971297904</v>
       </c>
       <c r="C6">
-        <v>-0.05708533328517101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.03407264459347774</v>
+      </c>
+      <c r="D6">
+        <v>-0.008861298160190892</v>
+      </c>
+      <c r="E6">
+        <v>0.004372504908361156</v>
+      </c>
+      <c r="F6">
+        <v>0.0578940830308253</v>
+      </c>
+      <c r="G6">
+        <v>0.02687239293911289</v>
+      </c>
+      <c r="H6">
+        <v>-0.1115896827127391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04868482558414826</v>
+        <v>-0.06446331825836621</v>
       </c>
       <c r="C7">
-        <v>-0.02678835811064012</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.01890558467525248</v>
+      </c>
+      <c r="D7">
+        <v>-0.04562043244173256</v>
+      </c>
+      <c r="E7">
+        <v>-0.04117567762903634</v>
+      </c>
+      <c r="F7">
+        <v>0.03259279775654146</v>
+      </c>
+      <c r="G7">
+        <v>-0.04041550714618344</v>
+      </c>
+      <c r="H7">
+        <v>0.01676686708116669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03693451012508294</v>
+        <v>-0.0405429478388794</v>
       </c>
       <c r="C8">
-        <v>-0.01161664543297721</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.007232999589449193</v>
+      </c>
+      <c r="D8">
+        <v>-0.02143521755017484</v>
+      </c>
+      <c r="E8">
+        <v>-0.03623001073169109</v>
+      </c>
+      <c r="F8">
+        <v>0.04736322006349603</v>
+      </c>
+      <c r="G8">
+        <v>0.04817121224926314</v>
+      </c>
+      <c r="H8">
+        <v>-0.0007628798205899242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06758339873060475</v>
+        <v>-0.07981930758588551</v>
       </c>
       <c r="C9">
-        <v>-0.04481925257599025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02949250828684772</v>
+      </c>
+      <c r="D9">
+        <v>-0.06347962000895091</v>
+      </c>
+      <c r="E9">
+        <v>-0.04085097217467241</v>
+      </c>
+      <c r="F9">
+        <v>0.03061945915167436</v>
+      </c>
+      <c r="G9">
+        <v>0.01007681330141318</v>
+      </c>
+      <c r="H9">
+        <v>0.05348655547222728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02870027745323884</v>
+        <v>-0.03467094271788333</v>
       </c>
       <c r="C10">
-        <v>-0.03463130070964073</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04182114394440614</v>
+      </c>
+      <c r="D10">
+        <v>0.1712147905247902</v>
+      </c>
+      <c r="E10">
+        <v>-0.05231756786441803</v>
+      </c>
+      <c r="F10">
+        <v>0.04384784832195041</v>
+      </c>
+      <c r="G10">
+        <v>-0.04247188868227921</v>
+      </c>
+      <c r="H10">
+        <v>-0.03727087815728399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06998963110480358</v>
+        <v>-0.07654390369549512</v>
       </c>
       <c r="C11">
-        <v>-0.04780535871942591</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.02778996504983198</v>
+      </c>
+      <c r="D11">
+        <v>-0.06242503184289339</v>
+      </c>
+      <c r="E11">
+        <v>-0.0004035682874530028</v>
+      </c>
+      <c r="F11">
+        <v>0.02682483956274807</v>
+      </c>
+      <c r="G11">
+        <v>-0.004426915406590195</v>
+      </c>
+      <c r="H11">
+        <v>0.09745877332932837</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05746998985549352</v>
+        <v>-0.06724264856403452</v>
       </c>
       <c r="C12">
-        <v>-0.05139152149273098</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03566623411998523</v>
+      </c>
+      <c r="D12">
+        <v>-0.04841224866765794</v>
+      </c>
+      <c r="E12">
+        <v>-0.01596667590267647</v>
+      </c>
+      <c r="F12">
+        <v>0.01878656541290816</v>
+      </c>
+      <c r="G12">
+        <v>-0.0004953005958303526</v>
+      </c>
+      <c r="H12">
+        <v>0.05416634573730526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05928045791972413</v>
+        <v>-0.06509120313528347</v>
       </c>
       <c r="C13">
-        <v>-0.04096645559726499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.02528556164403335</v>
+      </c>
+      <c r="D13">
+        <v>-0.04259248694064826</v>
+      </c>
+      <c r="E13">
+        <v>-0.01431092381016763</v>
+      </c>
+      <c r="F13">
+        <v>0.0009918925578656745</v>
+      </c>
+      <c r="G13">
+        <v>-0.008065500743902759</v>
+      </c>
+      <c r="H13">
+        <v>0.04837262717615191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03252831295981446</v>
+        <v>-0.04137064705467463</v>
       </c>
       <c r="C14">
-        <v>-0.03257133624366224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02830035926074253</v>
+      </c>
+      <c r="D14">
+        <v>-0.00431102816349966</v>
+      </c>
+      <c r="E14">
+        <v>-0.03317073035431817</v>
+      </c>
+      <c r="F14">
+        <v>0.01066721665527853</v>
+      </c>
+      <c r="G14">
+        <v>0.01095912554314012</v>
+      </c>
+      <c r="H14">
+        <v>0.05536056597942722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03911949813842473</v>
+        <v>-0.04000896267610345</v>
       </c>
       <c r="C15">
-        <v>-0.01062657211844457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.002975599984917144</v>
+      </c>
+      <c r="D15">
+        <v>-0.003205745973689366</v>
+      </c>
+      <c r="E15">
+        <v>-0.04199780620533765</v>
+      </c>
+      <c r="F15">
+        <v>-0.006515154469657789</v>
+      </c>
+      <c r="G15">
+        <v>0.02788494356828488</v>
+      </c>
+      <c r="H15">
+        <v>0.03688536045365607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06072194468283742</v>
+        <v>-0.07059650052144729</v>
       </c>
       <c r="C16">
-        <v>-0.04321113318544676</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02780682923152403</v>
+      </c>
+      <c r="D16">
+        <v>-0.06235505395132166</v>
+      </c>
+      <c r="E16">
+        <v>-0.009094319360013453</v>
+      </c>
+      <c r="F16">
+        <v>0.02374062166195855</v>
+      </c>
+      <c r="G16">
+        <v>-0.003972574016372537</v>
+      </c>
+      <c r="H16">
+        <v>0.06185837148220513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06398275257419618</v>
+        <v>-0.06332257251243421</v>
       </c>
       <c r="C20">
-        <v>-0.03275355477413013</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01394461278586642</v>
+      </c>
+      <c r="D20">
+        <v>-0.03991540476039897</v>
+      </c>
+      <c r="E20">
+        <v>-0.03540339067660501</v>
+      </c>
+      <c r="F20">
+        <v>0.01587911121349561</v>
+      </c>
+      <c r="G20">
+        <v>0.01281175006816025</v>
+      </c>
+      <c r="H20">
+        <v>0.0498448262160691</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02359714565033911</v>
+        <v>-0.02455208326545021</v>
       </c>
       <c r="C21">
-        <v>0.002594566029297763</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.009157107236038489</v>
+      </c>
+      <c r="D21">
+        <v>-0.02679728041372006</v>
+      </c>
+      <c r="E21">
+        <v>-0.03950521223152394</v>
+      </c>
+      <c r="F21">
+        <v>-0.01567795276111869</v>
+      </c>
+      <c r="G21">
+        <v>0.008529214973079837</v>
+      </c>
+      <c r="H21">
+        <v>-0.05184839583424362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07643591497437975</v>
+        <v>-0.07200296266729367</v>
       </c>
       <c r="C22">
-        <v>-0.05809040021584159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03666203676796145</v>
+      </c>
+      <c r="D22">
+        <v>-0.06465708403161931</v>
+      </c>
+      <c r="E22">
+        <v>-0.5579347699646975</v>
+      </c>
+      <c r="F22">
+        <v>-0.2603583563636517</v>
+      </c>
+      <c r="G22">
+        <v>-0.05773285764430695</v>
+      </c>
+      <c r="H22">
+        <v>-0.1704906794775407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07743577561910167</v>
+        <v>-0.07264450919266835</v>
       </c>
       <c r="C23">
-        <v>-0.05701778454150052</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03535922387137921</v>
+      </c>
+      <c r="D23">
+        <v>-0.06553637754323779</v>
+      </c>
+      <c r="E23">
+        <v>-0.5574365427710941</v>
+      </c>
+      <c r="F23">
+        <v>-0.2589221542321557</v>
+      </c>
+      <c r="G23">
+        <v>-0.05604658858485622</v>
+      </c>
+      <c r="H23">
+        <v>-0.1655545538390707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07106433917511132</v>
+        <v>-0.08050689499228804</v>
       </c>
       <c r="C24">
-        <v>-0.05181846339770485</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03367531827963481</v>
+      </c>
+      <c r="D24">
+        <v>-0.05822368315080985</v>
+      </c>
+      <c r="E24">
+        <v>-0.02000967567926026</v>
+      </c>
+      <c r="F24">
+        <v>0.03396551179327179</v>
+      </c>
+      <c r="G24">
+        <v>0.005716465046794711</v>
+      </c>
+      <c r="H24">
+        <v>0.06842859950697872</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07084179096710871</v>
+        <v>-0.07791618872543056</v>
       </c>
       <c r="C25">
-        <v>-0.0575623078981281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03844889723576022</v>
+      </c>
+      <c r="D25">
+        <v>-0.05100340741727319</v>
+      </c>
+      <c r="E25">
+        <v>-0.02259888407007855</v>
+      </c>
+      <c r="F25">
+        <v>0.02630348516110171</v>
+      </c>
+      <c r="G25">
+        <v>0.01823257479268455</v>
+      </c>
+      <c r="H25">
+        <v>0.06707190168792253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04475777839730784</v>
+        <v>-0.04771498552388044</v>
       </c>
       <c r="C26">
-        <v>-0.0103304077451837</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.001904865884459669</v>
+      </c>
+      <c r="D26">
+        <v>-0.0173471364408877</v>
+      </c>
+      <c r="E26">
+        <v>-0.05330781904630785</v>
+      </c>
+      <c r="F26">
+        <v>0.01833784789859242</v>
+      </c>
+      <c r="G26">
+        <v>-0.007398329159939412</v>
+      </c>
+      <c r="H26">
+        <v>0.05911969468543977</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05230442150955605</v>
+        <v>-0.06209396144826015</v>
       </c>
       <c r="C28">
-        <v>-0.0751065489167151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.08346875240099307</v>
+      </c>
+      <c r="D28">
+        <v>0.3078209881133548</v>
+      </c>
+      <c r="E28">
+        <v>-0.02731479662025597</v>
+      </c>
+      <c r="F28">
+        <v>0.05669712599095085</v>
+      </c>
+      <c r="G28">
+        <v>0.02942280305724964</v>
+      </c>
+      <c r="H28">
+        <v>-0.04513370263902969</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04021375136458438</v>
+        <v>-0.04845846060583557</v>
       </c>
       <c r="C29">
-        <v>-0.03195999328314009</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02606289849462559</v>
+      </c>
+      <c r="D29">
+        <v>-0.004355608639356453</v>
+      </c>
+      <c r="E29">
+        <v>-0.05798481730053658</v>
+      </c>
+      <c r="F29">
+        <v>-0.001692822728521294</v>
+      </c>
+      <c r="G29">
+        <v>-0.005588583653007319</v>
+      </c>
+      <c r="H29">
+        <v>0.083027875741726</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1274573297897988</v>
+        <v>-0.1328457998352758</v>
       </c>
       <c r="C30">
-        <v>-0.09634628355664651</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06418081749136963</v>
+      </c>
+      <c r="D30">
+        <v>-0.06949508328919554</v>
+      </c>
+      <c r="E30">
+        <v>-0.08430912311875348</v>
+      </c>
+      <c r="F30">
+        <v>-0.02427849112179541</v>
+      </c>
+      <c r="G30">
+        <v>0.0715321268978317</v>
+      </c>
+      <c r="H30">
+        <v>-0.0372492413376774</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04238753637210296</v>
+        <v>-0.04887707595980376</v>
       </c>
       <c r="C31">
-        <v>-0.0207543657166241</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01269618280808434</v>
+      </c>
+      <c r="D31">
+        <v>-0.02466419507972211</v>
+      </c>
+      <c r="E31">
+        <v>-0.03159524933577394</v>
+      </c>
+      <c r="F31">
+        <v>0.008260064988511595</v>
+      </c>
+      <c r="G31">
+        <v>-0.02375233635252619</v>
+      </c>
+      <c r="H31">
+        <v>0.0650805994566824</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03578364836873389</v>
+        <v>-0.03810644106218673</v>
       </c>
       <c r="C32">
-        <v>-0.02240377617041412</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01588943346202399</v>
+      </c>
+      <c r="D32">
+        <v>-0.01114322532909249</v>
+      </c>
+      <c r="E32">
+        <v>-0.06708836320957086</v>
+      </c>
+      <c r="F32">
+        <v>-0.02031303597680325</v>
+      </c>
+      <c r="G32">
+        <v>0.0336733035767829</v>
+      </c>
+      <c r="H32">
+        <v>0.06913828851257144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08201886693625</v>
+        <v>-0.09551266120674656</v>
       </c>
       <c r="C33">
-        <v>-0.04505629104330106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.02676004462438757</v>
+      </c>
+      <c r="D33">
+        <v>-0.0494984494502038</v>
+      </c>
+      <c r="E33">
+        <v>-0.01582060565694293</v>
+      </c>
+      <c r="F33">
+        <v>0.0005457631385181551</v>
+      </c>
+      <c r="G33">
+        <v>-0.008699548596329822</v>
+      </c>
+      <c r="H33">
+        <v>0.0733694261660567</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05614945384221028</v>
+        <v>-0.06241407453381863</v>
       </c>
       <c r="C34">
-        <v>-0.02910685069415797</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01355383299246745</v>
+      </c>
+      <c r="D34">
+        <v>-0.05338135832586696</v>
+      </c>
+      <c r="E34">
+        <v>-0.01143513650126919</v>
+      </c>
+      <c r="F34">
+        <v>0.01751679669114047</v>
+      </c>
+      <c r="G34">
+        <v>0.006217344846134945</v>
+      </c>
+      <c r="H34">
+        <v>0.06109563380320149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03686315776071159</v>
+        <v>-0.04045070543645914</v>
       </c>
       <c r="C35">
-        <v>-0.008807678791114954</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.002540868720140687</v>
+      </c>
+      <c r="D35">
+        <v>-0.005704126236706138</v>
+      </c>
+      <c r="E35">
+        <v>-0.01725132435782989</v>
+      </c>
+      <c r="F35">
+        <v>-0.01578276965644174</v>
+      </c>
+      <c r="G35">
+        <v>-0.01190645612368911</v>
+      </c>
+      <c r="H35">
+        <v>0.02707917592806419</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02050930999474545</v>
+        <v>-0.0273367631440583</v>
       </c>
       <c r="C36">
-        <v>-0.01757079717649603</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.0136383970652185</v>
+      </c>
+      <c r="D36">
+        <v>-0.01177290062147683</v>
+      </c>
+      <c r="E36">
+        <v>-0.04598084015413888</v>
+      </c>
+      <c r="F36">
+        <v>0.01150706914151557</v>
+      </c>
+      <c r="G36">
+        <v>-0.009243965982436837</v>
+      </c>
+      <c r="H36">
+        <v>0.04565051239781034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03962755514482307</v>
+        <v>-0.04390588108728236</v>
       </c>
       <c r="C38">
-        <v>-0.002800394809070117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.002759425333740285</v>
+      </c>
+      <c r="D38">
+        <v>-0.01564707724600717</v>
+      </c>
+      <c r="E38">
+        <v>-0.0541424316837423</v>
+      </c>
+      <c r="F38">
+        <v>-0.01757832201957744</v>
+      </c>
+      <c r="G38">
+        <v>0.01308671380126458</v>
+      </c>
+      <c r="H38">
+        <v>0.02751021061124558</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08976263788162644</v>
+        <v>-0.1024960711608572</v>
       </c>
       <c r="C39">
-        <v>-0.07211181945637532</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.04990922192600804</v>
+      </c>
+      <c r="D39">
+        <v>-0.06610798419908706</v>
+      </c>
+      <c r="E39">
+        <v>-0.00208611444370667</v>
+      </c>
+      <c r="F39">
+        <v>0.007330698639556253</v>
+      </c>
+      <c r="G39">
+        <v>0.03541691589363477</v>
+      </c>
+      <c r="H39">
+        <v>0.06800342342842045</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07399694798162743</v>
+        <v>-0.07219795318070212</v>
       </c>
       <c r="C40">
-        <v>-0.04028550059942851</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.0191156444024295</v>
+      </c>
+      <c r="D40">
+        <v>-0.01097018099472595</v>
+      </c>
+      <c r="E40">
+        <v>-0.01639642843505607</v>
+      </c>
+      <c r="F40">
+        <v>-0.05479186295374366</v>
+      </c>
+      <c r="G40">
+        <v>0.04212937918371208</v>
+      </c>
+      <c r="H40">
+        <v>-0.08665372953915923</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04068610301568393</v>
+        <v>-0.04377219977868683</v>
       </c>
       <c r="C41">
-        <v>-0.006428176948070512</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.001361261844925948</v>
+      </c>
+      <c r="D41">
+        <v>-0.03446073936807039</v>
+      </c>
+      <c r="E41">
+        <v>-0.003625542368475817</v>
+      </c>
+      <c r="F41">
+        <v>-0.01709698802009548</v>
+      </c>
+      <c r="G41">
+        <v>0.01117941177321509</v>
+      </c>
+      <c r="H41">
+        <v>0.03608968383416913</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04687968672694279</v>
+        <v>-0.05761380748807986</v>
       </c>
       <c r="C43">
-        <v>-0.02593505803815638</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.01706710281763819</v>
+      </c>
+      <c r="D43">
+        <v>-0.0247142745407079</v>
+      </c>
+      <c r="E43">
+        <v>-0.02081836126369601</v>
+      </c>
+      <c r="F43">
+        <v>0.009550352559258027</v>
+      </c>
+      <c r="G43">
+        <v>-0.01482563249776684</v>
+      </c>
+      <c r="H43">
+        <v>0.05477679653325079</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09291161443871107</v>
+        <v>-0.09477130579691184</v>
       </c>
       <c r="C44">
-        <v>-0.09369765168226998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06440027551681884</v>
+      </c>
+      <c r="D44">
+        <v>-0.0600354630593589</v>
+      </c>
+      <c r="E44">
+        <v>-0.09701149870314944</v>
+      </c>
+      <c r="F44">
+        <v>0.03293412901547049</v>
+      </c>
+      <c r="G44">
+        <v>0.02999142377262784</v>
+      </c>
+      <c r="H44">
+        <v>0.01461969901542894</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02534715564283867</v>
+        <v>-0.03341977483466484</v>
       </c>
       <c r="C46">
-        <v>-0.01440492049710131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.01105825009690927</v>
+      </c>
+      <c r="D46">
+        <v>-0.03020159894424418</v>
+      </c>
+      <c r="E46">
+        <v>-0.03228195736527339</v>
+      </c>
+      <c r="F46">
+        <v>0.01393241585743847</v>
+      </c>
+      <c r="G46">
+        <v>0.001794622199757659</v>
+      </c>
+      <c r="H46">
+        <v>0.03619185483988013</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03060538915531615</v>
+        <v>-0.03831966226848509</v>
       </c>
       <c r="C47">
-        <v>-0.02536809618617824</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01982239219056798</v>
+      </c>
+      <c r="D47">
+        <v>-0.009154068830170059</v>
+      </c>
+      <c r="E47">
+        <v>-0.05155902316423133</v>
+      </c>
+      <c r="F47">
+        <v>0.00608842585784858</v>
+      </c>
+      <c r="G47">
+        <v>-0.03824108632517133</v>
+      </c>
+      <c r="H47">
+        <v>0.02687161199053511</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03174949473220476</v>
+        <v>-0.03770687107350668</v>
       </c>
       <c r="C48">
-        <v>-0.01641356623000084</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01003817738866753</v>
+      </c>
+      <c r="D48">
+        <v>-0.01867860697237519</v>
+      </c>
+      <c r="E48">
+        <v>-0.04395878220215536</v>
+      </c>
+      <c r="F48">
+        <v>-6.030244955295281e-05</v>
+      </c>
+      <c r="G48">
+        <v>0.01095990970354892</v>
+      </c>
+      <c r="H48">
+        <v>0.04534639900307015</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.161263973021265</v>
+        <v>-0.1904517941486593</v>
       </c>
       <c r="C49">
-        <v>-0.06516631967306125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.03515329019800188</v>
+      </c>
+      <c r="D49">
+        <v>-0.03227357966331573</v>
+      </c>
+      <c r="E49">
+        <v>0.1419946914468725</v>
+      </c>
+      <c r="F49">
+        <v>0.07396812262322595</v>
+      </c>
+      <c r="G49">
+        <v>-0.06193668475174983</v>
+      </c>
+      <c r="H49">
+        <v>-0.2430598465414434</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03888442828309967</v>
+        <v>-0.04602153362222147</v>
       </c>
       <c r="C50">
-        <v>-0.02386151533460316</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01654770187180774</v>
+      </c>
+      <c r="D50">
+        <v>-0.02911463208184387</v>
+      </c>
+      <c r="E50">
+        <v>-0.05449771252769012</v>
+      </c>
+      <c r="F50">
+        <v>0.007944055455573548</v>
+      </c>
+      <c r="G50">
+        <v>-0.01983999574901143</v>
+      </c>
+      <c r="H50">
+        <v>0.06048902925522835</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02579647925793224</v>
+        <v>-0.029429578700143</v>
       </c>
       <c r="C51">
-        <v>-0.007667818448331098</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.003706125934449938</v>
+      </c>
+      <c r="D51">
+        <v>-0.0149072829940909</v>
+      </c>
+      <c r="E51">
+        <v>-0.01667275324864361</v>
+      </c>
+      <c r="F51">
+        <v>0.01790010018405076</v>
+      </c>
+      <c r="G51">
+        <v>-0.0003253128620465567</v>
+      </c>
+      <c r="H51">
+        <v>-0.006472884670188229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1522860126607491</v>
+        <v>-0.162569296559145</v>
       </c>
       <c r="C53">
-        <v>-0.08331795492042017</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.05338428561613</v>
+      </c>
+      <c r="D53">
+        <v>-0.01774143345079624</v>
+      </c>
+      <c r="E53">
+        <v>0.02400683606791107</v>
+      </c>
+      <c r="F53">
+        <v>0.01985423743226637</v>
+      </c>
+      <c r="G53">
+        <v>-0.004188700813201419</v>
+      </c>
+      <c r="H53">
+        <v>0.1606797769984434</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05588934473462032</v>
+        <v>-0.0580823618618021</v>
       </c>
       <c r="C54">
-        <v>-0.02492249314093219</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01275730025172733</v>
+      </c>
+      <c r="D54">
+        <v>-0.01529193323128099</v>
+      </c>
+      <c r="E54">
+        <v>-0.0531808769052441</v>
+      </c>
+      <c r="F54">
+        <v>0.001406287949440671</v>
+      </c>
+      <c r="G54">
+        <v>0.0102273954870856</v>
+      </c>
+      <c r="H54">
+        <v>0.05124423962944874</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1001746597649229</v>
+        <v>-0.1035875368760836</v>
       </c>
       <c r="C55">
-        <v>-0.05873875652461814</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.03631990260689996</v>
+      </c>
+      <c r="D55">
+        <v>-0.02361801723125422</v>
+      </c>
+      <c r="E55">
+        <v>-0.02006440411463134</v>
+      </c>
+      <c r="F55">
+        <v>0.01418497433938786</v>
+      </c>
+      <c r="G55">
+        <v>0.004420794251923382</v>
+      </c>
+      <c r="H55">
+        <v>0.1445814161896683</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1464482863642352</v>
+        <v>-0.1598246640001176</v>
       </c>
       <c r="C56">
-        <v>-0.09480274912374728</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.06473280867828916</v>
+      </c>
+      <c r="D56">
+        <v>-0.0203160711065683</v>
+      </c>
+      <c r="E56">
+        <v>0.02214875970873423</v>
+      </c>
+      <c r="F56">
+        <v>0.03733532207990124</v>
+      </c>
+      <c r="G56">
+        <v>-0.01283807965508827</v>
+      </c>
+      <c r="H56">
+        <v>0.1641737385709727</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1217594430889123</v>
+        <v>-0.09779244393547001</v>
       </c>
       <c r="C58">
-        <v>-0.007650727120109973</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.03378317459788676</v>
+      </c>
+      <c r="D58">
+        <v>-0.03711493276796081</v>
+      </c>
+      <c r="E58">
+        <v>-0.1663953499414167</v>
+      </c>
+      <c r="F58">
+        <v>-0.02313561197799405</v>
+      </c>
+      <c r="G58">
+        <v>-0.06316481533893777</v>
+      </c>
+      <c r="H58">
+        <v>-0.217879759790955</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1165382491580145</v>
+        <v>-0.1366547878332662</v>
       </c>
       <c r="C59">
-        <v>-0.08090577354506151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08538302797388568</v>
+      </c>
+      <c r="D59">
+        <v>0.365639363855171</v>
+      </c>
+      <c r="E59">
+        <v>-0.02307893146106682</v>
+      </c>
+      <c r="F59">
+        <v>0.02058882650095005</v>
+      </c>
+      <c r="G59">
+        <v>-0.03618061282160707</v>
+      </c>
+      <c r="H59">
+        <v>0.006216710619785273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2037782485231669</v>
+        <v>-0.2321843552440823</v>
       </c>
       <c r="C60">
-        <v>-0.1082310314459221</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.06866206518804803</v>
+      </c>
+      <c r="D60">
+        <v>-0.03818131235163783</v>
+      </c>
+      <c r="E60">
+        <v>0.09100426633848724</v>
+      </c>
+      <c r="F60">
+        <v>0.07717336833799314</v>
+      </c>
+      <c r="G60">
+        <v>0.02112954989756071</v>
+      </c>
+      <c r="H60">
+        <v>-0.1753400697809433</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07880483636156969</v>
+        <v>-0.08804289791399628</v>
       </c>
       <c r="C61">
-        <v>-0.05133798648892834</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.035215679675696</v>
+      </c>
+      <c r="D61">
+        <v>-0.04349316722442793</v>
+      </c>
+      <c r="E61">
+        <v>-0.0004303978538040227</v>
+      </c>
+      <c r="F61">
+        <v>0.004697482650531775</v>
+      </c>
+      <c r="G61">
+        <v>0.0004234686280791034</v>
+      </c>
+      <c r="H61">
+        <v>0.07493175147384018</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1278848597769506</v>
+        <v>-0.139271172205982</v>
       </c>
       <c r="C62">
-        <v>-0.06864572135311553</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.0422836282194259</v>
+      </c>
+      <c r="D62">
+        <v>-0.02834114694435549</v>
+      </c>
+      <c r="E62">
+        <v>0.05959799866264878</v>
+      </c>
+      <c r="F62">
+        <v>0.02093653261543344</v>
+      </c>
+      <c r="G62">
+        <v>0.02516753016751166</v>
+      </c>
+      <c r="H62">
+        <v>0.1754574506036447</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05054974673860227</v>
+        <v>-0.05035972656650387</v>
       </c>
       <c r="C63">
-        <v>-0.02618032898811279</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01404071420857085</v>
+      </c>
+      <c r="D63">
+        <v>-0.01960879631209635</v>
+      </c>
+      <c r="E63">
+        <v>-0.05244991595823811</v>
+      </c>
+      <c r="F63">
+        <v>-0.01580162392515522</v>
+      </c>
+      <c r="G63">
+        <v>0.02877929770817973</v>
+      </c>
+      <c r="H63">
+        <v>0.05785417791099214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.10622828375175</v>
+        <v>-0.1093528280098776</v>
       </c>
       <c r="C64">
-        <v>-0.02658282424917565</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.004347254862720756</v>
+      </c>
+      <c r="D64">
+        <v>-0.0397990671301905</v>
+      </c>
+      <c r="E64">
+        <v>-0.04897330272074567</v>
+      </c>
+      <c r="F64">
+        <v>0.04241684856133592</v>
+      </c>
+      <c r="G64">
+        <v>0.05167050461067473</v>
+      </c>
+      <c r="H64">
+        <v>0.05986901430586859</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1206336713267115</v>
+        <v>-0.1271610951228376</v>
       </c>
       <c r="C65">
-        <v>-0.06355705338917821</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04009228418189202</v>
+      </c>
+      <c r="D65">
+        <v>0.0004831582459383716</v>
+      </c>
+      <c r="E65">
+        <v>-0.01316044828386086</v>
+      </c>
+      <c r="F65">
+        <v>0.06134914982341363</v>
+      </c>
+      <c r="G65">
+        <v>0.05462182329071363</v>
+      </c>
+      <c r="H65">
+        <v>-0.1442331059295834</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1408669115639649</v>
+        <v>-0.154044070182205</v>
       </c>
       <c r="C66">
-        <v>-0.07701584350870568</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.04544393386928612</v>
+      </c>
+      <c r="D66">
+        <v>-0.1015879295206921</v>
+      </c>
+      <c r="E66">
+        <v>0.02601928099858097</v>
+      </c>
+      <c r="F66">
+        <v>0.01934565425334049</v>
+      </c>
+      <c r="G66">
+        <v>0.0442388337734024</v>
+      </c>
+      <c r="H66">
+        <v>0.1479027217939698</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07205608118994761</v>
+        <v>-0.08328181001824525</v>
       </c>
       <c r="C67">
-        <v>-0.01438718793872297</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.003926317298563948</v>
+      </c>
+      <c r="D67">
+        <v>-0.02997926824601811</v>
+      </c>
+      <c r="E67">
+        <v>-0.02574478929872879</v>
+      </c>
+      <c r="F67">
+        <v>0.01394576871045824</v>
+      </c>
+      <c r="G67">
+        <v>-0.006314081671289436</v>
+      </c>
+      <c r="H67">
+        <v>0.03022926511872335</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05824501641152546</v>
+        <v>-0.057867437212784</v>
       </c>
       <c r="C68">
-        <v>-0.0519318174636334</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.05685865981117285</v>
+      </c>
+      <c r="D68">
+        <v>0.270129936076021</v>
+      </c>
+      <c r="E68">
+        <v>-0.03674189394489727</v>
+      </c>
+      <c r="F68">
+        <v>0.01612174207142482</v>
+      </c>
+      <c r="G68">
+        <v>-0.01535838217282822</v>
+      </c>
+      <c r="H68">
+        <v>0.006465619863412869</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05320859091852641</v>
+        <v>-0.05322527706077902</v>
       </c>
       <c r="C69">
-        <v>-0.01880377011317436</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.00504020729840068</v>
+      </c>
+      <c r="D69">
+        <v>-0.01591031940159046</v>
+      </c>
+      <c r="E69">
+        <v>-0.024883303305305</v>
+      </c>
+      <c r="F69">
+        <v>-0.01028496508880135</v>
+      </c>
+      <c r="G69">
+        <v>-0.01451699709898988</v>
+      </c>
+      <c r="H69">
+        <v>0.0539004371165885</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005358921745446535</v>
+        <v>-0.02683372366306391</v>
       </c>
       <c r="C70">
-        <v>0.004155094684973042</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0003632619619686703</v>
+      </c>
+      <c r="D70">
+        <v>-0.001210107941203979</v>
+      </c>
+      <c r="E70">
+        <v>0.02429496840136339</v>
+      </c>
+      <c r="F70">
+        <v>0.03128500307880207</v>
+      </c>
+      <c r="G70">
+        <v>-0.01998117427678837</v>
+      </c>
+      <c r="H70">
+        <v>-0.04898411658124359</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05770222881040111</v>
+        <v>-0.06023969641377551</v>
       </c>
       <c r="C71">
-        <v>-0.05122449737643375</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.05963174612083037</v>
+      </c>
+      <c r="D71">
+        <v>0.2949121200996221</v>
+      </c>
+      <c r="E71">
+        <v>-0.03461744123972121</v>
+      </c>
+      <c r="F71">
+        <v>0.04265409676125964</v>
+      </c>
+      <c r="G71">
+        <v>-0.004596046461975606</v>
+      </c>
+      <c r="H71">
+        <v>0.01313213148935572</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1381298454116917</v>
+        <v>-0.1474581356737673</v>
       </c>
       <c r="C72">
-        <v>-0.06597562754833067</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.03753732239755297</v>
+      </c>
+      <c r="D72">
+        <v>0.01206109873133111</v>
+      </c>
+      <c r="E72">
+        <v>0.1246519234601981</v>
+      </c>
+      <c r="F72">
+        <v>-0.1503803513709902</v>
+      </c>
+      <c r="G72">
+        <v>0.1135465551794187</v>
+      </c>
+      <c r="H72">
+        <v>0.02607372790801447</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2723014077176163</v>
+        <v>-0.2881858769099765</v>
       </c>
       <c r="C73">
-        <v>-0.1162595234956205</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.04708063057337563</v>
+      </c>
+      <c r="D73">
+        <v>-0.1004358074618264</v>
+      </c>
+      <c r="E73">
+        <v>0.2118089712497532</v>
+      </c>
+      <c r="F73">
+        <v>0.1211113167630884</v>
+      </c>
+      <c r="G73">
+        <v>-0.1824937113612322</v>
+      </c>
+      <c r="H73">
+        <v>-0.4694935818908611</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.0795273776116361</v>
+        <v>-0.09222923023342183</v>
       </c>
       <c r="C74">
-        <v>-0.07980726476585005</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.0600681431483621</v>
+      </c>
+      <c r="D74">
+        <v>-0.03214317384753672</v>
+      </c>
+      <c r="E74">
+        <v>0.004925514916991086</v>
+      </c>
+      <c r="F74">
+        <v>-0.007717605195433873</v>
+      </c>
+      <c r="G74">
+        <v>-0.04150596904257994</v>
+      </c>
+      <c r="H74">
+        <v>0.1189937267895732</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09405855136645408</v>
+        <v>-0.0998631954162587</v>
       </c>
       <c r="C75">
-        <v>-0.05627656077304625</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02956081519937948</v>
+      </c>
+      <c r="D75">
+        <v>-0.01374229146893024</v>
+      </c>
+      <c r="E75">
+        <v>-0.01140289330347687</v>
+      </c>
+      <c r="F75">
+        <v>0.02753903711303069</v>
+      </c>
+      <c r="G75">
+        <v>-0.01435548935949364</v>
+      </c>
+      <c r="H75">
+        <v>0.1098665242538771</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.129516186095486</v>
+        <v>-0.139798230442027</v>
       </c>
       <c r="C76">
-        <v>-0.08540533249995895</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.05616084179707449</v>
+      </c>
+      <c r="D76">
+        <v>-0.05010039540455202</v>
+      </c>
+      <c r="E76">
+        <v>-0.03568892261538336</v>
+      </c>
+      <c r="F76">
+        <v>0.04331817492976581</v>
+      </c>
+      <c r="G76">
+        <v>0.004876629718701151</v>
+      </c>
+      <c r="H76">
+        <v>0.1737664527911249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1152954686732637</v>
+        <v>-0.1113792853618546</v>
       </c>
       <c r="C77">
-        <v>-0.02340877346599125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.003002952130159909</v>
+      </c>
+      <c r="D77">
+        <v>-0.02019564233148214</v>
+      </c>
+      <c r="E77">
+        <v>-0.02447772729243535</v>
+      </c>
+      <c r="F77">
+        <v>0.1327752287520661</v>
+      </c>
+      <c r="G77">
+        <v>0.8834880627557876</v>
+      </c>
+      <c r="H77">
+        <v>-0.1799135212291597</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09896808054848651</v>
+        <v>-0.1383122180566738</v>
       </c>
       <c r="C78">
-        <v>-0.04060283840728957</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03201984518406613</v>
+      </c>
+      <c r="D78">
+        <v>-0.09167032244376168</v>
+      </c>
+      <c r="E78">
+        <v>-0.05547574796775667</v>
+      </c>
+      <c r="F78">
+        <v>0.02920888008871854</v>
+      </c>
+      <c r="G78">
+        <v>0.06914897455580642</v>
+      </c>
+      <c r="H78">
+        <v>-0.04296913893254448</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1462603882111521</v>
+        <v>-0.1517644548813827</v>
       </c>
       <c r="C79">
-        <v>-0.08233631656912213</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.04611160397900616</v>
+      </c>
+      <c r="D79">
+        <v>-0.02676033080164041</v>
+      </c>
+      <c r="E79">
+        <v>0.01147516323998997</v>
+      </c>
+      <c r="F79">
+        <v>0.01849427298812475</v>
+      </c>
+      <c r="G79">
+        <v>-0.02005531704594011</v>
+      </c>
+      <c r="H79">
+        <v>0.1739413444733219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04541623961370167</v>
+        <v>-0.04335027477611438</v>
       </c>
       <c r="C80">
-        <v>-0.01680522372019864</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.006282806149805664</v>
+      </c>
+      <c r="D80">
+        <v>-0.01839270890992133</v>
+      </c>
+      <c r="E80">
+        <v>0.006651162809856189</v>
+      </c>
+      <c r="F80">
+        <v>-0.004574853202891592</v>
+      </c>
+      <c r="G80">
+        <v>-0.03467125276029769</v>
+      </c>
+      <c r="H80">
+        <v>0.04364557147282948</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1154277532283142</v>
+        <v>-0.1199892476222062</v>
       </c>
       <c r="C81">
-        <v>-0.06642878360007494</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03745344855007016</v>
+      </c>
+      <c r="D81">
+        <v>-0.02298966253062527</v>
+      </c>
+      <c r="E81">
+        <v>-0.03004223781036406</v>
+      </c>
+      <c r="F81">
+        <v>0.01272189113272314</v>
+      </c>
+      <c r="G81">
+        <v>-0.04489532351816873</v>
+      </c>
+      <c r="H81">
+        <v>0.1481404535201415</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1304047526720703</v>
+        <v>-0.1314057910306987</v>
       </c>
       <c r="C82">
-        <v>-0.08158596214876064</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.04961843878467358</v>
+      </c>
+      <c r="D82">
+        <v>-0.02621469592681624</v>
+      </c>
+      <c r="E82">
+        <v>0.007648956453906771</v>
+      </c>
+      <c r="F82">
+        <v>0.05906905021012351</v>
+      </c>
+      <c r="G82">
+        <v>-0.03436220498869394</v>
+      </c>
+      <c r="H82">
+        <v>0.1953701726149847</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07908229776631323</v>
+        <v>-0.08791524582519426</v>
       </c>
       <c r="C83">
-        <v>0.003915422934241097</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.02097527968135299</v>
+      </c>
+      <c r="D83">
+        <v>-0.03684688361004122</v>
+      </c>
+      <c r="E83">
+        <v>-0.02562640868810289</v>
+      </c>
+      <c r="F83">
+        <v>0.05447083258439443</v>
+      </c>
+      <c r="G83">
+        <v>-0.08611888788818434</v>
+      </c>
+      <c r="H83">
+        <v>-0.05680556680601932</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02854771451159673</v>
+        <v>-0.03764519715216004</v>
       </c>
       <c r="C84">
-        <v>-0.02535433343696971</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01902302348790537</v>
+      </c>
+      <c r="D84">
+        <v>-0.02867813306254555</v>
+      </c>
+      <c r="E84">
+        <v>-0.01918561459860804</v>
+      </c>
+      <c r="F84">
+        <v>-0.05725458994073024</v>
+      </c>
+      <c r="G84">
+        <v>-0.06655708883799731</v>
+      </c>
+      <c r="H84">
+        <v>0.007510849363336005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1188153869322164</v>
+        <v>-0.1197753093330895</v>
       </c>
       <c r="C85">
-        <v>-0.06333699689076412</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03208592803489504</v>
+      </c>
+      <c r="D85">
+        <v>-0.02416162187683628</v>
+      </c>
+      <c r="E85">
+        <v>-0.02441300043791738</v>
+      </c>
+      <c r="F85">
+        <v>0.03904520343160803</v>
+      </c>
+      <c r="G85">
+        <v>-0.01327448555485175</v>
+      </c>
+      <c r="H85">
+        <v>0.1485215283789959</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04907231442859557</v>
+        <v>-0.05809420535583396</v>
       </c>
       <c r="C86">
-        <v>-0.02905269205026393</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01841847011343752</v>
+      </c>
+      <c r="D86">
+        <v>-0.02398411988272939</v>
+      </c>
+      <c r="E86">
+        <v>-0.06662676094840851</v>
+      </c>
+      <c r="F86">
+        <v>0.02217453913193514</v>
+      </c>
+      <c r="G86">
+        <v>-0.01818633169903833</v>
+      </c>
+      <c r="H86">
+        <v>-0.004467571260411815</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1214324431267435</v>
+        <v>-0.122814718261009</v>
       </c>
       <c r="C87">
-        <v>-0.07113402733335034</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.035206444690458</v>
+      </c>
+      <c r="D87">
+        <v>-0.07541009473732219</v>
+      </c>
+      <c r="E87">
+        <v>-0.02112135530544955</v>
+      </c>
+      <c r="F87">
+        <v>-0.007286776553724045</v>
+      </c>
+      <c r="G87">
+        <v>0.1108644639243035</v>
+      </c>
+      <c r="H87">
+        <v>-0.03429582916752656</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05306238469575135</v>
+        <v>-0.06034336426223589</v>
       </c>
       <c r="C88">
-        <v>-0.03016336369714513</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.01884005042886886</v>
+      </c>
+      <c r="D88">
+        <v>-0.0283412848113537</v>
+      </c>
+      <c r="E88">
+        <v>-0.02192143969490118</v>
+      </c>
+      <c r="F88">
+        <v>0.006652077517740209</v>
+      </c>
+      <c r="G88">
+        <v>0.008467206929996344</v>
+      </c>
+      <c r="H88">
+        <v>0.05227641015269955</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07964363568281246</v>
+        <v>-0.09137478527726992</v>
       </c>
       <c r="C89">
-        <v>-0.06794706390194249</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07754856982729502</v>
+      </c>
+      <c r="D89">
+        <v>0.3426345596832976</v>
+      </c>
+      <c r="E89">
+        <v>-0.07273129670478558</v>
+      </c>
+      <c r="F89">
+        <v>0.07986787477343917</v>
+      </c>
+      <c r="G89">
+        <v>-0.01792972697969215</v>
+      </c>
+      <c r="H89">
+        <v>0.007357656888719274</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07216610382118069</v>
+        <v>-0.07872945142808994</v>
       </c>
       <c r="C90">
-        <v>-0.06050950581394374</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06722521006608466</v>
+      </c>
+      <c r="D90">
+        <v>0.3110064325242014</v>
+      </c>
+      <c r="E90">
+        <v>-0.05959705502390764</v>
+      </c>
+      <c r="F90">
+        <v>0.001495649441149943</v>
+      </c>
+      <c r="G90">
+        <v>-0.00350190552511962</v>
+      </c>
+      <c r="H90">
+        <v>0.008011888304319256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08412170401613647</v>
+        <v>-0.08940462477709114</v>
       </c>
       <c r="C91">
-        <v>-0.05529815773674093</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.03339491365911638</v>
+      </c>
+      <c r="D91">
+        <v>-0.03071484298621433</v>
+      </c>
+      <c r="E91">
+        <v>-0.01658665903440409</v>
+      </c>
+      <c r="F91">
+        <v>0.002791725140893076</v>
+      </c>
+      <c r="G91">
+        <v>-0.05276445465304952</v>
+      </c>
+      <c r="H91">
+        <v>0.0769481955089755</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07339943307206551</v>
+        <v>-0.07944362931674788</v>
       </c>
       <c r="C92">
-        <v>-0.07370428693226844</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.08075744853032833</v>
+      </c>
+      <c r="D92">
+        <v>0.3416866867025934</v>
+      </c>
+      <c r="E92">
+        <v>-0.0458635049200431</v>
+      </c>
+      <c r="F92">
+        <v>0.03957515579711388</v>
+      </c>
+      <c r="G92">
+        <v>0.00656654959347351</v>
+      </c>
+      <c r="H92">
+        <v>0.02630804253334399</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06513945657109925</v>
+        <v>-0.07711539827528503</v>
       </c>
       <c r="C93">
-        <v>-0.06661644201729727</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.07855066959579135</v>
+      </c>
+      <c r="D93">
+        <v>0.3081930566674196</v>
+      </c>
+      <c r="E93">
+        <v>-0.0386112659428824</v>
+      </c>
+      <c r="F93">
+        <v>0.0403487078330956</v>
+      </c>
+      <c r="G93">
+        <v>0.01037685251311289</v>
+      </c>
+      <c r="H93">
+        <v>-0.01016752878466258</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1327021375383553</v>
+        <v>-0.1268792753981386</v>
       </c>
       <c r="C94">
-        <v>-0.06046880010820756</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02251446274682465</v>
+      </c>
+      <c r="D94">
+        <v>-0.04736364032605614</v>
+      </c>
+      <c r="E94">
+        <v>0.000234205906752497</v>
+      </c>
+      <c r="F94">
+        <v>0.02120439313889146</v>
+      </c>
+      <c r="G94">
+        <v>-0.05073555956129129</v>
+      </c>
+      <c r="H94">
+        <v>0.09777249040997266</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1189171858072793</v>
+        <v>-0.12964431730939</v>
       </c>
       <c r="C95">
-        <v>-0.03681426471151773</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.008540042990792505</v>
+      </c>
+      <c r="D95">
+        <v>-0.06089886312857816</v>
+      </c>
+      <c r="E95">
+        <v>-0.01392648590481263</v>
+      </c>
+      <c r="F95">
+        <v>0.04701227403147188</v>
+      </c>
+      <c r="G95">
+        <v>-0.01133637374744732</v>
+      </c>
+      <c r="H95">
+        <v>-0.02994864992599589</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2023058180701312</v>
+        <v>-0.2093816975349574</v>
       </c>
       <c r="C97">
-        <v>-0.04486043557019443</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.004357453838021849</v>
+      </c>
+      <c r="D97">
+        <v>0.09551610995807909</v>
+      </c>
+      <c r="E97">
+        <v>0.3503155465332295</v>
+      </c>
+      <c r="F97">
+        <v>-0.8500520906923658</v>
+      </c>
+      <c r="G97">
+        <v>0.09309788227319549</v>
+      </c>
+      <c r="H97">
+        <v>0.01124276082371473</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2426075831582012</v>
+        <v>-0.2747690713413002</v>
       </c>
       <c r="C98">
-        <v>-0.07949164537368475</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.03423434195286841</v>
+      </c>
+      <c r="D98">
+        <v>-0.06084900447658743</v>
+      </c>
+      <c r="E98">
+        <v>0.1645636166434869</v>
+      </c>
+      <c r="F98">
+        <v>0.08865894097617237</v>
+      </c>
+      <c r="G98">
+        <v>-0.2700756024965758</v>
+      </c>
+      <c r="H98">
+        <v>-0.2367858614903766</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4638036366773184</v>
+        <v>-0.2829392344327221</v>
       </c>
       <c r="C99">
-        <v>0.870342661551029</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9363473325244883</v>
+      </c>
+      <c r="D99">
+        <v>0.1290272401322118</v>
+      </c>
+      <c r="E99">
+        <v>-0.06472967516884159</v>
+      </c>
+      <c r="F99">
+        <v>0.04356949492553366</v>
+      </c>
+      <c r="G99">
+        <v>-0.01239412372577851</v>
+      </c>
+      <c r="H99">
+        <v>0.06578203992002601</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0402770721374559</v>
+        <v>-0.04855758165374339</v>
       </c>
       <c r="C101">
-        <v>-0.03194430882970126</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.0261487130707002</v>
+      </c>
+      <c r="D101">
+        <v>-0.004895108337715504</v>
+      </c>
+      <c r="E101">
+        <v>-0.05702116305900051</v>
+      </c>
+      <c r="F101">
+        <v>-0.002113296322128548</v>
+      </c>
+      <c r="G101">
+        <v>-0.00571832050114076</v>
+      </c>
+      <c r="H101">
+        <v>0.08234032657114125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
